--- a/서버관련자료/테이블구성정리.xlsx
+++ b/서버관련자료/테이블구성정리.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="11790" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="11790" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -19,21 +19,381 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="138">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="135">
+  <x:si>
+    <x:t>foreign key for adminmember(id)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>foreign key for member(email)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블명</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">birth </x:t>
+  </x:si>
+  <x:si>
+    <x:t>prodnum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qnanum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>price</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sale</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자 이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매유무</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">rank </x:t>
+  </x:si>
+  <x:si>
+    <x:t>content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리뷰 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>할인내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리뷰점수</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">sns </x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>review</x:t>
+  </x:si>
+  <x:si>
+    <x:t>notice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>별점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬럼명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qna</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추천수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>primary key not null</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">phone </x:t>
+  </x:si>
+  <x:si>
+    <x:t>결재 방법</x:t>
+  </x:si>
+  <x:si>
+    <x:t>image</x:t>
+  </x:si>
+  <x:si>
+    <x:t>name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>order</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kind</x:t>
+  </x:si>
+  <x:si>
+    <x:t>notinum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>grade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rename</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">name </x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cartnum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 사진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문 날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>result</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recom</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지 내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comnum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>indate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>odnum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 총가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 등급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 생년월일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배송 유무</x:t>
+  </x:si>
   <x:si>
     <x:t>qnadate</x:t>
   </x:si>
   <x:si>
+    <x:t>redate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 종류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문 상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lookup</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문의 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>product</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리뷰 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>regdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sns 가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 가입일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>state</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문의 날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">passwd </x:t>
+  </x:si>
+  <x:si>
+    <x:t>renum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cart</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">email </x:t>
+  </x:si>
+  <x:si>
+    <x:t>defalut 1(브론즈 : 1, 실버 : 2, 골드 : 3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보람 : 1, 구글 : 2, 카카오 : 3, 페이스북 : 4</x:t>
+  </x:si>
+  <x:si>
     <x:t>defalut 1(구입예정 : 1, 구입 : 2, 반품 : 3)</x:t>
   </x:si>
   <x:si>
-    <x:t>defalut 1(브론즈 : 1, 실버 : 2, 골드 : 3)</x:t>
-  </x:si>
-  <x:si>
     <x:t>foreign key for product(prodnum)</x:t>
   </x:si>
   <x:si>
-    <x:t>보람 : 1, 구글 : 2, 카카오 : 3, 페이스북 : 4</x:t>
+    <x:t>리뷰 게시판에서 값 받아서 평균값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>역사, 소설 등 종류 정해야함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>order_detail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR(250)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>default sysdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR(20)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>totprice</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">totalprice </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">joindate </x:t>
+  </x:si>
+  <x:si>
+    <x:t>orderdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문 처리 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>quantity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ordernum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR(50)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATETIME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 구입한 금액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TINYINT(4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 처리 내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카트에 담은 날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SMALLINT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>notidate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adminmember</x:t>
+  </x:si>
+  <x:si>
+    <x:t>primary key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자 전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR(10)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">address </x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자 비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>defalut 1(배송전 : 1, 배송중 : 2, 배송완료 : 3)</x:t>
   </x:si>
   <x:si>
     <x:t>defalut 1(카드 계좌이체등 정해야함)</x:t>
@@ -45,144 +405,6 @@
     <x:t>defalut 1(판매 : 1, 판매중단 : 2)</x:t>
   </x:si>
   <x:si>
-    <x:t>redate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 종류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문 상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lookup</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문의 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 총가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 등급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 생년월일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배송 유무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 성별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리뷰 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>regdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>product</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 가입일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>renum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>defalut 1(배송전 : 1, 배송중 : 2, 배송완료 : 3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">joindate </x:t>
-  </x:si>
-  <x:si>
-    <x:t>SMALLINT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 구입한 금액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR(20)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>totprice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TINYINT(4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">totalprice </x:t>
-  </x:si>
-  <x:si>
-    <x:t>orderdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문 처리 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ordernum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 처리 내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>quantity</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR(50)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATETIME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카트에 담은 날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adminmember</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">address </x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자 전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR(10)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자 비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>notidate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>primary key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>defalut 1(답변 전 : 1, 답변 후 : 2)</x:t>
-  </x:si>
-  <x:si>
     <x:t>foreign key for cart(cartnum)</x:t>
   </x:si>
   <x:si>
@@ -195,244 +417,13 @@
     <x:t>foreign key for order(ordernum)</x:t>
   </x:si>
   <x:si>
-    <x:t>order_detail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>default sysdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>남자 : 1, 여자 : 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR(250)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리뷰 게시판에서 값 받아서 평균값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>역사, 소설 등 종류 정해야함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>별점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬럼명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rep</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pay</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qna</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추천수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문의 내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">email </x:t>
-  </x:si>
-  <x:si>
-    <x:t>답변 내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">passwd </x:t>
-  </x:si>
-  <x:si>
-    <x:t>답변 유무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문의 날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>state</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cart</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sns 가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>result</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>recom</x:t>
-  </x:si>
-  <x:si>
-    <x:t>image</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">phone </x:t>
-  </x:si>
-  <x:si>
-    <x:t>name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>indate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rename</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">gender </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">name </x:t>
-  </x:si>
-  <x:si>
-    <x:t>notinum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>grade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지 내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결재 방법</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cartnum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 사진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문 날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comnum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>order</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kind</x:t>
-  </x:si>
-  <x:si>
-    <x:t>odnum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문의 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reply</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>price</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">birth </x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자 이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>prodnum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qnanum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sale</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매유무</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">rank </x:t>
-  </x:si>
-  <x:si>
-    <x:t>리뷰점수</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">sns </x:t>
-  </x:si>
-  <x:si>
-    <x:t>content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리뷰 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>notice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>할인내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>review</x:t>
+    <x:t>email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>not null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>defalut 0</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1204,10 +1195,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="B2:E105"/>
+  <x:dimension ref="B2:E103"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E83" activeCellId="0" sqref="E83:E83"/>
+    <x:sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="E63" activeCellId="0" sqref="E63:E63"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -1220,839 +1211,842 @@
   <x:sheetData>
     <x:row r="2" spans="2:3">
       <x:c r="B2" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:5">
       <x:c r="B3" s="3" t="s">
-        <x:v>70</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C3" s="3" t="s">
-        <x:v>71</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D3" s="3" t="s">
-        <x:v>79</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E3" s="3" t="s">
-        <x:v>69</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="2:5">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="2:4">
       <x:c r="B4" s="3" t="s">
-        <x:v>73</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
-        <x:v>34</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D4" s="3" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="E4" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:5">
       <x:c r="B5" s="3" t="s">
-        <x:v>83</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>34</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>132</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E5" s="3"/>
     </x:row>
     <x:row r="6" spans="2:5">
       <x:c r="B6" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>34</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
-        <x:v>23</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E6" s="3"/>
     </x:row>
     <x:row r="7" spans="2:5">
       <x:c r="B7" s="3" t="s">
-        <x:v>81</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E7" s="3"/>
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E7" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
     </x:row>
     <x:row r="8" spans="2:5">
       <x:c r="B8" s="3" t="s">
-        <x:v>94</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
-        <x:v>34</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D8" s="3" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="E8" s="3"/>
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E8" s="3" t="s">
+        <x:v>133</x:v>
+      </x:c>
     </x:row>
     <x:row r="9" spans="2:5">
       <x:c r="B9" s="3" t="s">
-        <x:v>129</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>36</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D9" s="3" t="s">
-        <x:v>88</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:5">
       <x:c r="B10" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s">
-        <x:v>36</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D10" s="3" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="E10" s="3" t="s">
-        <x:v>60</x:v>
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E10" s="4">
+        <x:v>19880913</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:5">
       <x:c r="B11" s="3" t="s">
-        <x:v>119</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C11" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D11" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E11" s="4">
-        <x:v>19880913</x:v>
-      </x:c>
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E11" s="3"/>
     </x:row>
     <x:row r="12" spans="2:5">
       <x:c r="B12" s="3" t="s">
-        <x:v>47</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C12" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D12" s="3" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="E12" s="3"/>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="E12" s="3" t="s">
+        <x:v>93</x:v>
+      </x:c>
     </x:row>
     <x:row r="13" spans="2:5">
       <x:c r="B13" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C13" s="3" t="s">
-        <x:v>36</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D13" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E13" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:5">
       <x:c r="B14" s="3" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C14" s="3" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D14" s="3" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="E14" s="3" t="s">
+        <x:v>101</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="2:3">
+      <x:c r="B16" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C16" s="1" t="s">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="2:5">
+      <x:c r="B17" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C17" s="3" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D17" s="3" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C14" s="3" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="D14" s="3" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E14" s="3"/>
-    </x:row>
-    <x:row r="15" spans="2:5">
-      <x:c r="B15" s="3" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C15" s="3" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D15" s="3" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E15" s="3" t="s">
-        <x:v>59</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="2:3">
-      <x:c r="B17" s="1" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="C17" s="1" t="s">
-        <x:v>87</x:v>
+      <x:c r="E17" s="3" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:5">
       <x:c r="B18" s="3" t="s">
-        <x:v>70</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s">
-        <x:v>71</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D18" s="3" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="E18" s="3" t="s">
-        <x:v>69</x:v>
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E18" s="2" t="s">
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:5">
       <x:c r="B19" s="3" t="s">
-        <x:v>106</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C19" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D19" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E19" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E19" s="3" t="s">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="2:5">
       <x:c r="B20" s="3" t="s">
-        <x:v>73</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C20" s="3" t="s">
-        <x:v>34</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D20" s="3" t="s">
-        <x:v>136</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E20" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="2:5">
       <x:c r="B21" s="3" t="s">
-        <x:v>121</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C21" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D21" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E21" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E21" s="3"/>
     </x:row>
     <x:row r="22" spans="2:5">
       <x:c r="B22" s="3" t="s">
-        <x:v>42</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C22" s="3" t="s">
-        <x:v>32</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D22" s="3" t="s">
-        <x:v>74</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E22" s="3"/>
     </x:row>
     <x:row r="23" spans="2:5">
       <x:c r="B23" s="3" t="s">
-        <x:v>118</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C23" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D23" s="3" t="s">
-        <x:v>104</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E23" s="3"/>
     </x:row>
-    <x:row r="24" spans="2:5">
-      <x:c r="B24" s="3" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="C24" s="3" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D24" s="3" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="E24" s="3"/>
-    </x:row>
-    <x:row r="26" spans="2:3">
-      <x:c r="B26" s="1" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="C26" s="1" t="s">
-        <x:v>27</x:v>
+    <x:row r="25" spans="2:3">
+      <x:c r="B25" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C25" s="1" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="2:5">
+      <x:c r="B26" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C26" s="3" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D26" s="3" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E26" s="3" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="2:5">
       <x:c r="B27" s="3" t="s">
-        <x:v>70</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C27" s="3" t="s">
-        <x:v>71</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D27" s="3" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="E27" s="3" t="s">
-        <x:v>69</x:v>
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="E27" s="2" t="s">
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="2:5">
       <x:c r="B28" s="3" t="s">
-        <x:v>121</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C28" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D28" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E28" s="2" t="s">
-        <x:v>52</x:v>
-      </x:c>
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E28" s="3"/>
     </x:row>
     <x:row r="29" spans="2:5">
       <x:c r="B29" s="3" t="s">
-        <x:v>95</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C29" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D29" s="3" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="E29" s="3"/>
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E29" s="3" t="s">
+        <x:v>98</x:v>
+      </x:c>
     </x:row>
     <x:row r="30" spans="2:5">
       <x:c r="B30" s="3" t="s">
-        <x:v>113</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C30" s="3" t="s">
-        <x:v>32</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D30" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E30" s="3" t="s">
-        <x:v>63</x:v>
-      </x:c>
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E30" s="3"/>
     </x:row>
     <x:row r="31" spans="2:5">
       <x:c r="B31" s="3" t="s">
-        <x:v>118</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C31" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D31" s="3" t="s">
-        <x:v>104</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E31" s="3"/>
     </x:row>
     <x:row r="32" spans="2:5">
       <x:c r="B32" s="3" t="s">
-        <x:v>130</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C32" s="3" t="s">
-        <x:v>61</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D32" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E32" s="3"/>
     </x:row>
     <x:row r="33" spans="2:5">
       <x:c r="B33" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C33" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D33" s="3" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="E33" s="3"/>
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E33" s="3" t="s">
+        <x:v>97</x:v>
+      </x:c>
     </x:row>
     <x:row r="34" spans="2:5">
       <x:c r="B34" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C34" s="3" t="s">
-        <x:v>32</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D34" s="3" t="s">
-        <x:v>128</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E34" s="3" t="s">
-        <x:v>62</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="2:5">
       <x:c r="B35" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C35" s="3" t="s">
-        <x:v>36</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D35" s="3" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="E35" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="2:5">
-      <x:c r="B36" s="3" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E35" s="3"/>
+    </x:row>
+    <x:row r="37" spans="2:3">
+      <x:c r="B37" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C37" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="2:5">
+      <x:c r="B38" s="3" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C36" s="3" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D36" s="3" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="E36" s="3"/>
-    </x:row>
-    <x:row r="38" spans="2:3">
-      <x:c r="B38" s="1" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="C38" s="1" t="s">
-        <x:v>112</x:v>
+      <x:c r="C38" s="3" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D38" s="3" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E38" s="3" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="2:5">
       <x:c r="B39" s="3" t="s">
-        <x:v>70</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C39" s="3" t="s">
-        <x:v>71</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D39" s="3" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="E39" s="3" t="s">
-        <x:v>69</x:v>
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E39" s="2" t="s">
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="2:5">
       <x:c r="B40" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C40" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D40" s="3" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E40" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E40" s="3" t="s">
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="2:5">
       <x:c r="B41" s="3" t="s">
-        <x:v>106</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C41" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D41" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E41" s="3" t="s">
-        <x:v>54</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="2:5">
       <x:c r="B42" s="3" t="s">
-        <x:v>73</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C42" s="3" t="s">
-        <x:v>34</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D42" s="3" t="s">
-        <x:v>136</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E42" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="2:5">
       <x:c r="B43" s="3" t="s">
-        <x:v>121</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C43" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D43" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E43" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E43" s="3"/>
     </x:row>
     <x:row r="44" spans="2:5">
       <x:c r="B44" s="3" t="s">
-        <x:v>42</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C44" s="3" t="s">
-        <x:v>32</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D44" s="3" t="s">
-        <x:v>74</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E44" s="3"/>
     </x:row>
     <x:row r="45" spans="2:5">
       <x:c r="B45" s="3" t="s">
-        <x:v>118</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C45" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D45" s="3" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="E45" s="3"/>
-    </x:row>
-    <x:row r="46" spans="2:5">
-      <x:c r="B46" s="3" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="C46" s="3" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="D46" s="3" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="E46" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="48" spans="2:3">
-      <x:c r="B48" s="1" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="C48" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="E45" s="3" t="s">
+        <x:v>95</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="2:3">
+      <x:c r="B47" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C47" s="1" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="2:5">
+      <x:c r="B48" s="3" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C48" s="3" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D48" s="3" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="E48" s="2" t="s">
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="2:5">
       <x:c r="B49" s="3" t="s">
-        <x:v>114</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C49" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D49" s="3" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="E49" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E49" s="3" t="s">
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="2:5">
       <x:c r="B50" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C50" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D50" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E50" s="3" t="s">
-        <x:v>57</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="2:5">
       <x:c r="B51" s="3" t="s">
-        <x:v>106</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C51" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D51" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E51" s="3" t="s">
-        <x:v>54</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="2:5">
       <x:c r="B52" s="3" t="s">
-        <x:v>73</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C52" s="3" t="s">
-        <x:v>34</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D52" s="3" t="s">
-        <x:v>136</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E52" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="2:5">
       <x:c r="B53" s="3" t="s">
-        <x:v>121</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C53" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D53" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E53" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E53" s="3"/>
     </x:row>
     <x:row r="54" spans="2:5">
       <x:c r="B54" s="3" t="s">
-        <x:v>42</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C54" s="3" t="s">
-        <x:v>32</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D54" s="3" t="s">
-        <x:v>74</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E54" s="3"/>
     </x:row>
     <x:row r="55" spans="2:5">
       <x:c r="B55" s="3" t="s">
-        <x:v>118</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C55" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D55" s="3" t="s">
-        <x:v>104</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E55" s="3"/>
     </x:row>
     <x:row r="56" spans="2:5">
       <x:c r="B56" s="3" t="s">
-        <x:v>124</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C56" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D56" s="3" t="s">
-        <x:v>135</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E56" s="3"/>
     </x:row>
     <x:row r="57" spans="2:5">
       <x:c r="B57" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C57" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D57" s="3" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E57" s="3"/>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E57" s="3" t="s">
+        <x:v>125</x:v>
+      </x:c>
     </x:row>
     <x:row r="58" spans="2:5">
       <x:c r="B58" s="3" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C58" s="3" t="s">
-        <x:v>32</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D58" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E58" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="2:5">
       <x:c r="B59" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C59" s="3" t="s">
-        <x:v>36</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D59" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E59" s="3" t="s">
-        <x:v>55</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="2:5">
       <x:c r="B60" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C60" s="3" t="s">
-        <x:v>36</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D60" s="3" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E60" s="3" t="s">
-        <x:v>30</x:v>
-      </x:c>
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E60" s="3"/>
     </x:row>
     <x:row r="61" spans="2:5">
-      <x:c r="B61" s="3" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C61" s="3" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D61" s="3" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="E61" s="3"/>
-    </x:row>
-    <x:row r="62" spans="2:5">
-      <x:c r="B62" s="5"/>
-      <x:c r="C62" s="5"/>
-      <x:c r="D62" s="5"/>
-      <x:c r="E62" s="5"/>
-    </x:row>
-    <x:row r="63" spans="2:3">
-      <x:c r="B63" s="1" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="C63" s="1" t="s">
-        <x:v>137</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="64" spans="2:5">
+      <x:c r="B61" s="5"/>
+      <x:c r="C61" s="5"/>
+      <x:c r="D61" s="5"/>
+      <x:c r="E61" s="5"/>
+    </x:row>
+    <x:row r="62" spans="2:3">
+      <x:c r="B62" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C62" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="2:5">
+      <x:c r="B63" s="3" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C63" s="3" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D63" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E63" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="2:5" customFormat="1">
       <x:c r="B64" s="3" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C64" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D64" s="3" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="E64" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="E64" s="3" t="s">
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="2:5">
       <x:c r="B65" s="3" t="s">
-        <x:v>73</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C65" s="3" t="s">
-        <x:v>34</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D65" s="3" t="s">
-        <x:v>136</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E65" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="2:5">
       <x:c r="B66" s="3" t="s">
-        <x:v>97</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C66" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D66" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E66" s="3"/>
     </x:row>
     <x:row r="67" spans="2:5">
       <x:c r="B67" s="3" t="s">
-        <x:v>130</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C67" s="3" t="s">
-        <x:v>61</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D67" s="3" t="s">
-        <x:v>64</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E67" s="3"/>
     </x:row>
     <x:row r="68" spans="2:5">
       <x:c r="B68" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C68" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D68" s="3" t="s">
-        <x:v>67</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E68" s="3"/>
     </x:row>
     <x:row r="69" spans="2:5">
       <x:c r="B69" s="3" t="s">
-        <x:v>91</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C69" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D69" s="3" t="s">
-        <x:v>78</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E69" s="3"/>
     </x:row>
     <x:row r="70" spans="2:5">
       <x:c r="B70" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C70" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D70" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E70" s="3"/>
     </x:row>
     <x:row r="71" spans="2:5">
       <x:c r="B71" s="6" t="s">
-        <x:v>102</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C71" s="3" t="s">
-        <x:v>32</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D71" s="3" t="s">
-        <x:v>65</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E71" s="3"/>
     </x:row>
     <x:row r="72" spans="2:5">
       <x:c r="B72" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C72" s="3" t="s">
-        <x:v>44</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D72" s="3" t="s">
-        <x:v>68</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E72" s="3"/>
     </x:row>
@@ -2064,267 +2058,253 @@
     </x:row>
     <x:row r="74" spans="2:3">
       <x:c r="B74" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C74" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="2:5">
       <x:c r="B75" s="3" t="s">
-        <x:v>123</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C75" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D75" s="3" t="s">
-        <x:v>13</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E75" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="2:5">
       <x:c r="B76" s="3" t="s">
-        <x:v>73</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C76" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D76" s="3" t="s">
-        <x:v>136</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E76" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="2:5">
       <x:c r="B77" s="3" t="s">
-        <x:v>95</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C77" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D77" s="3" t="s">
-        <x:v>115</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E77" s="3"/>
     </x:row>
     <x:row r="78" spans="2:5">
       <x:c r="B78" s="3" t="s">
-        <x:v>130</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C78" s="3" t="s">
-        <x:v>61</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D78" s="3" t="s">
-        <x:v>80</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E78" s="3"/>
     </x:row>
     <x:row r="79" spans="2:5">
       <x:c r="B79" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C79" s="3" t="s">
-        <x:v>61</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D79" s="3" t="s">
-        <x:v>82</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E79" s="3"/>
     </x:row>
     <x:row r="80" spans="2:5">
-      <x:c r="B80" s="6" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="C80" s="3" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D80" s="3" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="E80" s="3" t="s">
-        <x:v>53</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="81" spans="2:5">
-      <x:c r="B81" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C81" s="3" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D81" s="3" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="E81" s="3"/>
+      <x:c r="B80" s="5"/>
+      <x:c r="C80" s="5"/>
+      <x:c r="D80" s="5"/>
+      <x:c r="E80" s="5"/>
+    </x:row>
+    <x:row r="81" spans="2:3">
+      <x:c r="B81" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C81" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
     </x:row>
     <x:row r="82" spans="2:5">
-      <x:c r="B82" s="5"/>
-      <x:c r="C82" s="5"/>
-      <x:c r="D82" s="5"/>
-      <x:c r="E82" s="5"/>
-    </x:row>
-    <x:row r="83" spans="2:3">
-      <x:c r="B83" s="1" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="C83" s="1" t="s">
-        <x:v>134</x:v>
+      <x:c r="B82" s="3" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C82" s="3" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D82" s="3" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E82" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="2:5">
+      <x:c r="B83" s="3" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C83" s="3" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D83" s="3" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E83" s="3" t="s">
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="2:5">
       <x:c r="B84" s="3" t="s">
-        <x:v>101</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C84" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D84" s="3" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="E84" s="2" t="s">
-        <x:v>52</x:v>
-      </x:c>
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E84" s="3"/>
     </x:row>
     <x:row r="85" spans="2:5">
       <x:c r="B85" s="3" t="s">
-        <x:v>73</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C85" s="3" t="s">
-        <x:v>34</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D85" s="3" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="E85" s="3" t="s">
-        <x:v>56</x:v>
-      </x:c>
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E85" s="3"/>
     </x:row>
     <x:row r="86" spans="2:5">
       <x:c r="B86" s="3" t="s">
-        <x:v>95</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C86" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D86" s="3" t="s">
-        <x:v>20</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E86" s="3"/>
     </x:row>
     <x:row r="87" spans="2:5">
       <x:c r="B87" s="3" t="s">
-        <x:v>130</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C87" s="3" t="s">
-        <x:v>61</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D87" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E87" s="3"/>
     </x:row>
     <x:row r="88" spans="2:5">
-      <x:c r="B88" s="3" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C88" s="3" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="D88" s="3" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="E88" s="3"/>
-    </x:row>
-    <x:row r="89" spans="2:5">
-      <x:c r="B89" s="3" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C89" s="3" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D89" s="3" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="E89" s="3"/>
-    </x:row>
-    <x:row r="90" spans="2:5">
-      <x:c r="B90" s="5"/>
-      <x:c r="C90" s="5"/>
-      <x:c r="D90" s="5"/>
-      <x:c r="E90" s="5"/>
-    </x:row>
-    <x:row r="92" spans="2:3">
-      <x:c r="B92" s="1" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="C92" s="1" t="s">
-        <x:v>46</x:v>
-      </x:c>
+      <x:c r="B88" s="5"/>
+      <x:c r="C88" s="5"/>
+      <x:c r="D88" s="5"/>
+      <x:c r="E88" s="5"/>
+    </x:row>
+    <x:row r="90" spans="2:3">
+      <x:c r="B90" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C90" s="1" t="s">
+        <x:v>118</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="2:5">
+      <x:c r="B91" s="3" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C91" s="3" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D91" s="3" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E91" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="2:5">
+      <x:c r="B92" s="3" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C92" s="3" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D92" s="3" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="E92" s="2"/>
     </x:row>
     <x:row r="93" spans="2:5">
       <x:c r="B93" s="3" t="s">
-        <x:v>73</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C93" s="3" t="s">
-        <x:v>34</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D93" s="3" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="E93" s="2" t="s">
-        <x:v>52</x:v>
-      </x:c>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E93" s="3"/>
     </x:row>
     <x:row r="94" spans="2:5">
       <x:c r="B94" s="3" t="s">
-        <x:v>83</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C94" s="3" t="s">
-        <x:v>34</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D94" s="3" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="E94" s="2"/>
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E94" s="3"/>
     </x:row>
     <x:row r="95" spans="2:5">
       <x:c r="B95" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C95" s="3" t="s">
-        <x:v>34</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D95" s="3" t="s">
-        <x:v>131</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E95" s="3"/>
     </x:row>
     <x:row r="96" spans="2:5">
-      <x:c r="B96" s="3" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="C96" s="3" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="D96" s="3" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="E96" s="3"/>
+      <x:c r="B96" s="5"/>
+      <x:c r="C96" s="5"/>
+      <x:c r="D96" s="5"/>
+      <x:c r="E96" s="5"/>
     </x:row>
     <x:row r="97" spans="2:5">
-      <x:c r="B97" s="3" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="C97" s="3" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="D97" s="3" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="E97" s="3"/>
+      <x:c r="B97" s="5"/>
+      <x:c r="C97" s="5"/>
+      <x:c r="D97" s="5"/>
+      <x:c r="E97" s="5"/>
     </x:row>
     <x:row r="98" spans="2:5">
       <x:c r="B98" s="5"/>
@@ -2336,7 +2316,7 @@
       <x:c r="B99" s="5"/>
       <x:c r="C99" s="5"/>
       <x:c r="D99" s="5"/>
-      <x:c r="E99" s="5"/>
+      <x:c r="E99" s="7"/>
     </x:row>
     <x:row r="100" spans="2:5">
       <x:c r="B100" s="5"/>
@@ -2348,7 +2328,7 @@
       <x:c r="B101" s="5"/>
       <x:c r="C101" s="5"/>
       <x:c r="D101" s="5"/>
-      <x:c r="E101" s="7"/>
+      <x:c r="E101" s="5"/>
     </x:row>
     <x:row r="102" spans="2:5">
       <x:c r="B102" s="5"/>
@@ -2362,18 +2342,6 @@
       <x:c r="D103" s="5"/>
       <x:c r="E103" s="5"/>
     </x:row>
-    <x:row r="104" spans="2:5">
-      <x:c r="B104" s="5"/>
-      <x:c r="C104" s="5"/>
-      <x:c r="D104" s="5"/>
-      <x:c r="E104" s="5"/>
-    </x:row>
-    <x:row r="105" spans="2:5">
-      <x:c r="B105" s="5"/>
-      <x:c r="C105" s="5"/>
-      <x:c r="D105" s="5"/>
-      <x:c r="E105" s="5"/>
-    </x:row>
   </x:sheetData>
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>

--- a/서버관련자료/테이블구성정리.xlsx
+++ b/서버관련자료/테이블구성정리.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="149">
   <si>
     <t>default sysdate</t>
   </si>
@@ -464,14 +464,6 @@
       </rPr>
       <t>etail</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>review</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>reviewscore</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -499,8 +491,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>상품 소개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>I</t>
+      <t>u</t>
     </r>
     <r>
       <rPr>
@@ -510,20 +506,70 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>NT</t>
+      <t>rl 형식으로 저장</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>VARCHAR(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>50)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reviewscore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>리뷰수</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>상품 소개</t>
+    <t>review</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>review</t>
+    <t>stock</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품재고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">defalut </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>5</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1171,8 +1217,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:F112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="J102" sqref="J102"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="J94" sqref="J94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1192,6 +1238,7 @@
       <c r="C2" s="13" t="s">
         <v>16</v>
       </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
@@ -1386,6 +1433,9 @@
         <v>0</v>
       </c>
     </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E16" s="2"/>
+    </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
         <v>30</v>
@@ -1393,6 +1443,7 @@
       <c r="C17" s="13" t="s">
         <v>46</v>
       </c>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
@@ -1503,6 +1554,9 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E25" s="2"/>
+    </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
         <v>30</v>
@@ -1510,6 +1564,7 @@
       <c r="C26" s="13" t="s">
         <v>31</v>
       </c>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="11" t="s">
@@ -1601,44 +1656,48 @@
       <c r="B33" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>2</v>
+      <c r="C33" s="14" t="s">
+        <v>137</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+      <c r="F33" s="14" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="F34" s="14" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="35" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="14" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>94</v>
@@ -1652,150 +1711,154 @@
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>65</v>
+      <c r="B37" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>145</v>
       </c>
       <c r="E37" s="4"/>
-      <c r="F37" s="4" t="s">
-        <v>10</v>
+      <c r="F37" s="14" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="13" t="s">
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C41" s="13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="11" t="s">
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C42" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D42" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E42" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="F42" s="11" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>122</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>114</v>
+      <c r="F43" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>107</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>107</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F46" s="4"/>
+      <c r="F46" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>107</v>
@@ -1804,153 +1867,157 @@
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D49" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4" t="s">
+      <c r="E49" s="4"/>
+      <c r="F49" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="13" t="s">
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C51" s="13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="11" t="s">
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C52" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D52" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E51" s="12" t="s">
+      <c r="E52" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F51" s="11" t="s">
+      <c r="F52" s="11" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="4" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>122</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F53" s="4" t="s">
-        <v>111</v>
+      <c r="F53" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="4" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>122</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>107</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>107</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>107</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="4" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F57" s="4"/>
+      <c r="F57" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="4" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>107</v>
@@ -1959,195 +2026,196 @@
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>122</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E59" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F59" s="4"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="4" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>122</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" s="4" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E61" s="4"/>
-      <c r="F61" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="F61" s="4"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="4" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="4" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>99</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B65" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C65" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D65" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B67" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C67" s="15" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B67" s="11" t="s">
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B68" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C68" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="D68" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E67" s="12" t="s">
+      <c r="E68" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F67" s="11" t="s">
+      <c r="F68" s="11" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B68" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="69" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B69" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>122</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F69" s="4" t="s">
-        <v>6</v>
+      <c r="F69" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>107</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="4" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F71" s="4"/>
+      <c r="F71" s="4" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="4" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>107</v>
@@ -2156,174 +2224,175 @@
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" s="4" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>122</v>
+        <v>2</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E73" s="4"/>
+        <v>130</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F73" s="4"/>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" s="4" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>122</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
     </row>
     <row r="75" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B75" s="4" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>122</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B76" s="14" t="s">
-        <v>144</v>
+      <c r="B76" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D76" s="14" t="s">
-        <v>145</v>
+      <c r="D76" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B78" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C78" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D78" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E77" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F77" s="4"/>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B78" s="4" t="s">
+      <c r="E78" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F78" s="4"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B79" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C79" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D79" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B80" s="13" t="s">
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B81" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C81" s="13" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B81" s="11" t="s">
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B82" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C82" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D81" s="11" t="s">
+      <c r="D82" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E81" s="12" t="s">
+      <c r="E82" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F81" s="11" t="s">
+      <c r="F82" s="11" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B82" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83" s="4" t="s">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F83" s="4" t="s">
-        <v>112</v>
+      <c r="F83" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B84" s="4" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F84" s="4"/>
+      <c r="F84" s="4" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85" s="4" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>107</v>
@@ -2332,109 +2401,110 @@
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F86" s="4"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B87" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C87" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D87" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="E87" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F86" s="4"/>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
+      <c r="F87" s="4"/>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B88" s="13" t="s">
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B89" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C89" s="13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B89" s="11" t="s">
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B90" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C90" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D89" s="11" t="s">
+      <c r="D90" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E89" s="12" t="s">
+      <c r="E90" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F89" s="11" t="s">
+      <c r="F90" s="11" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B90" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B91" s="4" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F91" s="4" t="s">
-        <v>113</v>
+      <c r="F91" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B92" s="4" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F92" s="4"/>
+      <c r="F92" s="4" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B93" s="4" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>107</v>
@@ -2443,28 +2513,28 @@
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B94" s="4" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>122</v>
+        <v>2</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="F94" s="4"/>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B95" s="4" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>132</v>
@@ -2472,93 +2542,97 @@
       <c r="F95" s="4"/>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
+      <c r="B96" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F96" s="4"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B98" s="13" t="s">
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B99" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C98" s="13" t="s">
+      <c r="C99" s="13" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B99" s="11" t="s">
+      <c r="E99" s="2"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B100" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C99" s="11" t="s">
+      <c r="C100" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D99" s="11" t="s">
+      <c r="D100" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E99" s="12" t="s">
+      <c r="E100" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F99" s="11" t="s">
+      <c r="F100" s="11" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B100" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B101" s="4" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F101" s="3"/>
+      <c r="F101" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B102" s="4" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F102" s="4"/>
+      <c r="F102" s="3"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B103" s="4" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>107</v>
@@ -2567,25 +2641,33 @@
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B104" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F104" s="4"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B105" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C105" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="D105" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E104" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F104" s="4"/>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B105" s="6"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
+      <c r="E105" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F105" s="4"/>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B106" s="6"/>

--- a/서버관련자료/테이블구성정리.xlsx
+++ b/서버관련자료/테이블구성정리.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="189">
   <si>
     <t>default sysdate</t>
   </si>
@@ -649,15 +649,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지 qna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prodname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recontent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>VARCHAR(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지 qna</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1282,10 +1294,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:F115"/>
+  <dimension ref="B2:F118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F115"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="J100" sqref="J100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1294,7 +1306,7 @@
     <col min="3" max="3" width="17.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="16" style="2" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="39.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="49.5" style="2" customWidth="1"/>
     <col min="8" max="12" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2465,7 +2477,7 @@
         <v>34</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>38</v>
@@ -2479,478 +2491,523 @@
     </row>
     <row r="83" spans="2:6">
       <c r="B83" s="7" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F83" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="84" spans="2:6">
       <c r="B84" s="7" t="s">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F84" s="7"/>
+      <c r="F84" s="8" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="85" spans="2:6">
       <c r="B85" s="7" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="E85" s="7"/>
-      <c r="F85" s="7" t="s">
-        <v>108</v>
-      </c>
+      <c r="F85" s="7"/>
     </row>
     <row r="86" spans="2:6">
       <c r="B86" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7" t="s">
-        <v>108</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F86" s="7"/>
     </row>
     <row r="87" spans="2:6">
       <c r="B87" s="7" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="C87" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F87" s="7"/>
+    </row>
+    <row r="88" spans="2:6">
+      <c r="B88" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C88" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D87" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7" t="s">
+      <c r="D88" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="88" spans="2:6">
-      <c r="B88" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F88" s="7"/>
     </row>
     <row r="89" spans="2:6">
       <c r="B89" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6">
+      <c r="B90" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6">
+      <c r="B91" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F91" s="7"/>
+    </row>
+    <row r="92" spans="2:6">
+      <c r="B92" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C92" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D92" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-    </row>
-    <row r="90" spans="2:6">
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-    </row>
-    <row r="91" spans="2:6">
-      <c r="B91" s="3" t="s">
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+    </row>
+    <row r="93" spans="2:6">
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+    </row>
+    <row r="94" spans="2:6">
+      <c r="B94" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C94" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-    </row>
-    <row r="92" spans="2:6">
-      <c r="B92" s="5" t="s">
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+    </row>
+    <row r="95" spans="2:6">
+      <c r="B95" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C95" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D95" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="E95" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F92" s="5" t="s">
+      <c r="F95" s="5" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6">
-      <c r="B93" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F93" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6">
-      <c r="B94" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F94" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6">
-      <c r="B95" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F95" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="96" spans="2:6">
       <c r="B96" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
       <c r="E96" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F96" s="7" t="s">
-        <v>175</v>
+      <c r="F96" s="8" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="97" spans="2:6">
       <c r="B97" s="7" t="s">
-        <v>176</v>
+        <v>32</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>177</v>
+        <v>72</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="98" spans="2:6">
       <c r="B98" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6">
+      <c r="B99" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6">
+      <c r="B100" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+    </row>
+    <row r="101" spans="2:6">
+      <c r="B101" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C101" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D98" s="7" t="s">
+      <c r="D101" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-    </row>
-    <row r="99" spans="2:6">
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-    </row>
-    <row r="100" spans="2:6">
-      <c r="B100" s="3" t="s">
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+    </row>
+    <row r="102" spans="2:6">
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+    </row>
+    <row r="103" spans="2:6">
+      <c r="B103" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C103" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-    </row>
-    <row r="101" spans="2:6">
-      <c r="B101" s="5" t="s">
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+    </row>
+    <row r="104" spans="2:6">
+      <c r="B104" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C104" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D104" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E101" s="6" t="s">
+      <c r="E104" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F101" s="5" t="s">
+      <c r="F104" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="102" spans="2:6">
-      <c r="B102" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D102" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F102" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6">
-      <c r="B103" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F103" s="12"/>
-    </row>
-    <row r="104" spans="2:6">
-      <c r="B104" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F104" s="7"/>
     </row>
     <row r="105" spans="2:6">
       <c r="B105" s="7" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F105" s="7"/>
+      <c r="F105" s="12" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="106" spans="2:6">
       <c r="B106" s="7" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>70</v>
       </c>
       <c r="D106" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F106" s="12"/>
+    </row>
+    <row r="107" spans="2:6">
+      <c r="B107" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F107" s="7"/>
+    </row>
+    <row r="108" spans="2:6">
+      <c r="B108" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F108" s="7"/>
+    </row>
+    <row r="109" spans="2:6">
+      <c r="B109" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D109" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E106" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F106" s="7"/>
-    </row>
-    <row r="107" spans="2:6">
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
-    </row>
-    <row r="108" spans="2:6">
-      <c r="B108" s="3" t="s">
+      <c r="E109" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F109" s="7"/>
+    </row>
+    <row r="110" spans="2:6">
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+    </row>
+    <row r="111" spans="2:6">
+      <c r="B111" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C111" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-    </row>
-    <row r="109" spans="2:6">
-      <c r="B109" s="5" t="s">
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+    </row>
+    <row r="112" spans="2:6">
+      <c r="B112" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="C112" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="D112" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E109" s="6" t="s">
+      <c r="E112" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F109" s="5" t="s">
+      <c r="F112" s="5" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="110" spans="2:6">
-      <c r="B110" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F110" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="111" spans="2:6">
-      <c r="B111" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F111" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="112" spans="2:6">
-      <c r="B112" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="E112" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F112" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="113" spans="2:6">
       <c r="B113" s="7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E113" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F113" s="7"/>
+      <c r="F113" s="8" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="114" spans="2:6">
       <c r="B114" s="7" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="E114" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F114" s="7"/>
+      <c r="F114" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="115" spans="2:6">
       <c r="B115" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6">
+      <c r="B116" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F116" s="7"/>
+    </row>
+    <row r="117" spans="2:6">
+      <c r="B117" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F117" s="7"/>
+    </row>
+    <row r="118" spans="2:6">
+      <c r="B118" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="C118" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D115" s="7" t="s">
+      <c r="D118" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E115" s="7" t="s">
+      <c r="E118" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F115" s="7"/>
+      <c r="F118" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
